--- a/data/topics-activities/twcs-SpotifyCares-outbound-activities.xlsx
+++ b/data/topics-activities/twcs-SpotifyCares-outbound-activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/electric/data/topics-activities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/ericsson/data/topics-activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5DA0E1-A44D-AB4A-846E-79D74A058CAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C9EFE-77AF-1744-8534-588F3D4515E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31240" yWindow="8900" windowWidth="27440" windowHeight="12360" xr2:uid="{16EA9EBB-E50E-DA47-B3BF-0E90574B1ABC}"/>
+    <workbookView xWindow="-30500" yWindow="2780" windowWidth="27440" windowHeight="12360" xr2:uid="{16EA9EBB-E50E-DA47-B3BF-0E90574B1ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,9 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7140368-DFDF-A444-9D89-A2FB0046FEE5}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -597,16 +595,16 @@
         <v>0.96</v>
       </c>
       <c r="E2">
-        <v>0.96181361349331629</v>
+        <v>0.96064535921058791</v>
       </c>
       <c r="F2">
-        <v>0.98000000000000009</v>
+        <v>0.98</v>
       </c>
       <c r="G2">
-        <v>0.98090909090909084</v>
+        <v>0.9814814814814814</v>
       </c>
       <c r="H2">
-        <v>0.9799498746867169</v>
+        <v>0.98113207547169812</v>
       </c>
       <c r="I2">
         <v>54</v>
@@ -850,19 +848,19 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.90999999999999992</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0.81294832096701108</v>
+        <v>0.80336173105394182</v>
       </c>
       <c r="F10">
-        <v>0.97000000000000008</v>
+        <v>0.97</v>
       </c>
       <c r="G10">
-        <v>0.85</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="H10">
-        <v>0.79999999999999993</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -882,19 +880,19 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>0.99700000000000011</v>
+        <v>0.96</v>
       </c>
       <c r="E11">
-        <v>0.93764944032233699</v>
+        <v>0.93767107939836591</v>
       </c>
       <c r="F11">
         <v>0.99</v>
       </c>
       <c r="G11">
-        <v>0.95</v>
+        <v>0.99456521739130432</v>
       </c>
       <c r="H11">
-        <v>0.93333333333333324</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="I11">
         <v>8</v>
